--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17055"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
   <si>
     <t>Id</t>
   </si>
@@ -195,22 +195,34 @@
     <t>res://resource/sprite/weapon/weapon0007/Weapon0007.png</t>
   </si>
   <si>
+    <t>weapon0008</t>
+  </si>
+  <si>
+    <t>激光手枪</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/Weapon0008.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/weapon/weapon0008/Weapon0008.png</t>
+  </si>
+  <si>
     <t>bullet0001</t>
   </si>
   <si>
-    <t>res://prefab/ammo/Bullet0001.tscn</t>
+    <t>res://prefab/bullet/Bullet0001.tscn</t>
   </si>
   <si>
     <t>bullet0002</t>
   </si>
   <si>
-    <t>res://prefab/ammo/Bullet0002.tscn</t>
+    <t>res://prefab/bullet/Bullet0002.tscn</t>
   </si>
   <si>
     <t>bullet0003</t>
   </si>
   <si>
-    <t>res://prefab/ammo/Bullet0003.tscn</t>
+    <t>res://prefab/bullet/Bullet0003.tscn</t>
   </si>
   <si>
     <t>shell0001</t>
@@ -1429,10 +1441,10 @@
   <sheetPr/>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1745,12 +1757,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="3:8">
-      <c r="C16" s="3"/>
+    <row r="16" ht="24" customHeight="1" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:8">
       <c r="C17" s="3"/>
@@ -1762,105 +1789,105 @@
     <row r="18" ht="39" customHeight="1"/>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
       </c>
       <c r="C21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1">
         <v>7</v>
       </c>
       <c r="C23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
       </c>
       <c r="C24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H29" s="2" t="b">
         <v>1</v>
@@ -1868,22 +1895,22 @@
     </row>
     <row r="30" customFormat="1" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1">
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H30" s="2" t="b">
         <v>1</v>
@@ -1891,22 +1918,22 @@
     </row>
     <row r="31" customFormat="1" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1">
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H31" s="2" t="b">
         <v>1</v>
@@ -1914,22 +1941,22 @@
     </row>
     <row r="32" customFormat="1" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1">
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H32" s="2" t="b">
         <v>1</v>
@@ -1937,22 +1964,22 @@
     </row>
     <row r="33" customFormat="1" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H33" s="2" t="b">
         <v>1</v>
@@ -1960,22 +1987,22 @@
     </row>
     <row r="34" customFormat="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H34" s="2" t="b">
         <v>1</v>
@@ -1983,22 +2010,22 @@
     </row>
     <row r="35" customFormat="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H35" s="2" t="b">
         <v>1</v>
@@ -2006,22 +2033,22 @@
     </row>
     <row r="36" customFormat="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B36" s="1">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G36" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H36" s="2" t="b">
         <v>1</v>
@@ -2029,22 +2056,22 @@
     </row>
     <row r="37" customFormat="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1">
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H37" s="2" t="b">
         <v>1</v>
@@ -2052,22 +2079,22 @@
     </row>
     <row r="38" customFormat="1" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G38" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H38" s="2" t="b">
         <v>1</v>
@@ -2075,22 +2102,22 @@
     </row>
     <row r="41" customFormat="1" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B41" s="1">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G41" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H41" s="2" t="b">
         <v>1</v>
@@ -2098,22 +2125,22 @@
     </row>
     <row r="42" customFormat="1" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B42" s="1">
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G42" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H42" s="2" t="b">
         <v>1</v>
@@ -2121,58 +2148,58 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B44" s="1">
         <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B45" s="1">
         <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B46" s="1">
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B47" s="1">
         <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -210,19 +210,19 @@
     <t>bullet0001</t>
   </si>
   <si>
-    <t>res://prefab/bullet/Bullet0001.tscn</t>
+    <t>res://prefab/bullet/normal/Bullet0001.tscn</t>
   </si>
   <si>
     <t>bullet0002</t>
   </si>
   <si>
-    <t>res://prefab/bullet/Bullet0002.tscn</t>
+    <t>res://prefab/bullet/normal/Bullet0002.tscn</t>
   </si>
   <si>
     <t>bullet0003</t>
   </si>
   <si>
-    <t>res://prefab/bullet/Bullet0003.tscn</t>
+    <t>res://prefab/bullet/normal/Bullet0003.tscn</t>
   </si>
   <si>
     <t>shell0001</t>
@@ -1442,9 +1442,9 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="149">
   <si>
     <t>Id</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>res://resource/sprite/weapon/weapon0008/Weapon0008.png</t>
+  </si>
+  <si>
+    <t>weapon0009</t>
+  </si>
+  <si>
+    <t>榴弹发射器</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/Weapon0009.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/weapon/weapon0009/Weapon0009.png</t>
   </si>
   <si>
     <t>bullet0001</t>
@@ -1444,7 +1456,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1779,115 +1791,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="24" customHeight="1" spans="3:8">
-      <c r="C17" s="3"/>
+    <row r="17" ht="24" customHeight="1" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="H17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" ht="39" customHeight="1"/>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
       </c>
       <c r="C21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1">
         <v>7</v>
       </c>
       <c r="C23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
       </c>
       <c r="C24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H29" s="2" t="b">
         <v>1</v>
@@ -1895,22 +1922,22 @@
     </row>
     <row r="30" customFormat="1" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1">
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H30" s="2" t="b">
         <v>1</v>
@@ -1918,22 +1945,22 @@
     </row>
     <row r="31" customFormat="1" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B31" s="1">
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H31" s="2" t="b">
         <v>1</v>
@@ -1941,22 +1968,22 @@
     </row>
     <row r="32" customFormat="1" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1">
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H32" s="2" t="b">
         <v>1</v>
@@ -1964,22 +1991,22 @@
     </row>
     <row r="33" customFormat="1" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H33" s="2" t="b">
         <v>1</v>
@@ -1987,22 +2014,22 @@
     </row>
     <row r="34" customFormat="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B34" s="1">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G34" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H34" s="2" t="b">
         <v>1</v>
@@ -2010,22 +2037,22 @@
     </row>
     <row r="35" customFormat="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H35" s="2" t="b">
         <v>1</v>
@@ -2033,22 +2060,22 @@
     </row>
     <row r="36" customFormat="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B36" s="1">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H36" s="2" t="b">
         <v>1</v>
@@ -2056,22 +2083,22 @@
     </row>
     <row r="37" customFormat="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B37" s="1">
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G37" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H37" s="2" t="b">
         <v>1</v>
@@ -2079,22 +2106,22 @@
     </row>
     <row r="38" customFormat="1" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H38" s="2" t="b">
         <v>1</v>
@@ -2102,22 +2129,22 @@
     </row>
     <row r="41" customFormat="1" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B41" s="1">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G41" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H41" s="2" t="b">
         <v>1</v>
@@ -2125,22 +2152,22 @@
     </row>
     <row r="42" customFormat="1" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B42" s="1">
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G42" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H42" s="2" t="b">
         <v>1</v>
@@ -2148,58 +2175,58 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B44" s="1">
         <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B45" s="1">
         <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B46" s="1">
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B47" s="1">
         <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="153">
   <si>
     <t>Id</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Details</t>
+  </si>
+  <si>
+    <t>IsStatic</t>
   </si>
   <si>
     <t>Prefab</t>
@@ -68,6 +71,9 @@
 在图鉴中的描述</t>
   </si>
   <si>
+    <t>是否是静态物体</t>
+  </si>
+  <si>
     <t>物体预制场景路径, 场景根节点必须是ActivityObject子类</t>
   </si>
   <si>
@@ -235,6 +241,12 @@
   </si>
   <si>
     <t>res://prefab/bullet/normal/Bullet0003.tscn</t>
+  </si>
+  <si>
+    <t>bullet0004</t>
+  </si>
+  <si>
+    <t>res://prefab/bullet/normal/Bullet0004.tscn</t>
   </si>
   <si>
     <t>shell0001</t>
@@ -1090,9 +1102,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1451,26 +1466,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.5583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5545454545455" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8916666666667" style="1" customWidth="1"/>
-    <col min="4" max="5" width="35.5583333333333" customWidth="1"/>
-    <col min="6" max="6" width="63.3666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.9083333333333" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="3" max="3" width="31.8909090909091" style="1" customWidth="1"/>
+    <col min="4" max="5" width="35.5545454545455" customWidth="1"/>
+    <col min="6" max="6" width="18.8181818181818" style="2" customWidth="1"/>
+    <col min="7" max="7" width="63.3636363636364" style="1" customWidth="1"/>
+    <col min="8" max="8" width="61.9090909090909" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:8">
+    <row r="1" ht="25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1480,753 +1496,889 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="138" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" ht="138" customHeight="1" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" ht="28" customHeight="1" spans="1:8">
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" ht="35" customHeight="1" spans="3:8">
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:8">
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="35" customHeight="1" spans="3:9">
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" ht="28" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" ht="28" customHeight="1" spans="3:8">
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" ht="28" customHeight="1" spans="1:8">
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="3:9">
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="3:8">
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="1:8">
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="28" customHeight="1" spans="3:9">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="1:8">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="1:8">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="1:8">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="1:8">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="C13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="1:8">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="C14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="1:8">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="C15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="1:8">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="C16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="1:8">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="C17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="2" t="b">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="39" customHeight="1"/>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:6">
+      <c r="F20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="1">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="F21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:6">
+    <row r="22" customFormat="1" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="F22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1">
         <v>7</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="1">
+      <c r="C25" s="1"/>
+      <c r="F25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7</v>
+      </c>
+      <c r="F26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:7">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1">
         <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="1">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:8">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B30" s="1">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="B31" s="1">
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="F31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1">
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="F32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="F33" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B34" s="1">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="F34" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="F35" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B36" s="1">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G36" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="F36" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1">
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="F37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" t="s">
         <v>123</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="H39" t="s">
         <v>125</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I39" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:9">
+      <c r="A40" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H38" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:8">
-      <c r="A41" s="1" t="s">
+      <c r="B40" s="1">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="1">
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="1">
         <v>9</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" t="s">
-        <v>131</v>
-      </c>
-      <c r="H41" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:8">
-      <c r="A42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="1">
+      <c r="D43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="1">
         <v>9</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" t="s">
-        <v>134</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G42" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B44" s="1">
-        <v>99</v>
       </c>
       <c r="D44" t="s">
         <v>138</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
+      <c r="H44" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="1">
-        <v>99</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="I44" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="B46" s="1">
         <v>99</v>
       </c>
       <c r="D46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="B47" s="1">
         <v>99</v>
       </c>
       <c r="D47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="B48" s="1">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
         <v>148</v>
+      </c>
+      <c r="F48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="1">
+        <v>99</v>
+      </c>
+      <c r="D49" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2397,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2262,7 +2414,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="25545" windowHeight="13155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="158">
   <si>
     <t>Id</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>IsStatic</t>
+  </si>
+  <si>
+    <t>Material</t>
   </si>
   <si>
     <t>Prefab</t>
@@ -74,6 +77,10 @@
     <t>是否是静态物体</t>
   </si>
   <si>
+    <t>物体使用交互材质
+如果不填，则默认使用id为0001的材质</t>
+  </si>
+  <si>
     <t>物体预制场景路径, 场景根节点必须是ActivityObject子类</t>
   </si>
   <si>
@@ -93,6 +100,9 @@
     <t>boolean</t>
   </si>
   <si>
+    <t>$ActivityMaterial</t>
+  </si>
+  <si>
     <t>role0001</t>
   </si>
   <si>
@@ -244,6 +254,12 @@
   </si>
   <si>
     <t>bullet0004</t>
+  </si>
+  <si>
+    <t>榴弹炮</t>
+  </si>
+  <si>
+    <t>0002</t>
   </si>
   <si>
     <t>res://prefab/bullet/normal/Bullet0004.tscn</t>
@@ -1110,12 +1126,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1466,27 +1482,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.5545454545455" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5583333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8909090909091" style="1" customWidth="1"/>
-    <col min="4" max="5" width="35.5545454545455" customWidth="1"/>
-    <col min="6" max="6" width="18.8181818181818" style="2" customWidth="1"/>
-    <col min="7" max="7" width="63.3636363636364" style="1" customWidth="1"/>
-    <col min="8" max="8" width="61.9090909090909" customWidth="1"/>
-    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="3" max="3" width="31.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="5" width="35.5583333333333" customWidth="1"/>
+    <col min="6" max="7" width="18.8166666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="63.3666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="61.9083333333333" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:9">
+    <row r="1" ht="25" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1496,889 +1512,930 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="138" customHeight="1" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" ht="138" customHeight="1" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" ht="28" customHeight="1" spans="1:9">
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" ht="35" customHeight="1" spans="3:9">
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:9">
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="35" customHeight="1" spans="3:10">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" ht="28" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" ht="28" customHeight="1" spans="3:9">
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" ht="28" customHeight="1" spans="1:9">
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="3:10">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="3:9">
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="1:9">
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="28" customHeight="1" spans="3:10">
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="1:9">
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="1:9">
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="1:9">
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="1:9">
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="1:9">
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="1:9">
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="1:9">
+      <c r="C15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="1:9">
+      <c r="C16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="3" t="b">
+      <c r="C17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="39" customHeight="1"/>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="F19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
       </c>
-      <c r="F20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:7">
+      <c r="F20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="F21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:7">
+      <c r="F21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="F22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:7">
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="F24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:7">
+      <c r="F24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1">
         <v>7</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="F25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1">
         <v>7</v>
       </c>
-      <c r="F26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:7">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="F26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="F29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B31" s="1">
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H31" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="F31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1">
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" t="s">
-        <v>90</v>
-      </c>
-      <c r="I32" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="F32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B33" s="1">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H33" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="F33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B34" s="1">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="F34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B35" s="1">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="F35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" t="s">
+        <v>110</v>
+      </c>
+      <c r="J35" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H36" t="s">
-        <v>110</v>
-      </c>
-      <c r="I36" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="F36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1">
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="F37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" t="s">
+        <v>120</v>
+      </c>
+      <c r="J37" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H38" t="s">
-        <v>120</v>
-      </c>
-      <c r="I38" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="F38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B39" s="1">
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" t="s">
-        <v>125</v>
-      </c>
-      <c r="I39" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="F39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B40" s="1">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
-      </c>
-      <c r="F40" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H40" t="s">
-        <v>130</v>
-      </c>
-      <c r="I40" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="F40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" t="s">
+        <v>135</v>
+      </c>
+      <c r="J40" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B43" s="1">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
-      </c>
-      <c r="F43" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="F43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I43" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B44" s="1">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
-      </c>
-      <c r="F44" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H44" t="s">
-        <v>140</v>
-      </c>
-      <c r="I44" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:7">
+        <v>143</v>
+      </c>
+      <c r="F44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" t="s">
+        <v>145</v>
+      </c>
+      <c r="J44" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B46" s="1">
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>147</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B47" s="1">
         <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>150</v>
+      </c>
+      <c r="F47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B48" s="1">
         <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>153</v>
+      </c>
+      <c r="F48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B49" s="1">
         <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
+      </c>
+      <c r="F49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2454,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2414,7 +2471,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25545" windowHeight="13155"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="160">
   <si>
     <t>Id</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>res://prefab/shell/Shell0003.tscn</t>
+  </si>
+  <si>
+    <t>shell0004</t>
+  </si>
+  <si>
+    <t>res://prefab/shell/Shell0004.tscn</t>
   </si>
   <si>
     <t>effect0001</t>
@@ -1484,10 +1490,10 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2027,46 +2033,64 @@
         <v>83</v>
       </c>
     </row>
+    <row r="27" customFormat="1" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F29" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1">
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F31" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J31" s="2" t="b">
         <v>1</v>
@@ -2074,26 +2098,26 @@
     </row>
     <row r="32" customFormat="1" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1">
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F32" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J32" s="2" t="b">
         <v>1</v>
@@ -2101,26 +2125,26 @@
     </row>
     <row r="33" customFormat="1" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B33" s="1">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J33" s="2" t="b">
         <v>1</v>
@@ -2128,26 +2152,26 @@
     </row>
     <row r="34" customFormat="1" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="1">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F34" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J34" s="2" t="b">
         <v>1</v>
@@ -2155,26 +2179,26 @@
     </row>
     <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F35" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J35" s="2" t="b">
         <v>1</v>
@@ -2182,26 +2206,26 @@
     </row>
     <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B36" s="1">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F36" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J36" s="2" t="b">
         <v>1</v>
@@ -2209,26 +2233,26 @@
     </row>
     <row r="37" customFormat="1" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1">
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F37" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J37" s="2" t="b">
         <v>1</v>
@@ -2236,26 +2260,26 @@
     </row>
     <row r="38" customFormat="1" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F38" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J38" s="2" t="b">
         <v>1</v>
@@ -2263,26 +2287,26 @@
     </row>
     <row r="39" customFormat="1" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B39" s="1">
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F39" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J39" s="2" t="b">
         <v>1</v>
@@ -2290,26 +2314,26 @@
     </row>
     <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B40" s="1">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F40" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J40" s="2" t="b">
         <v>1</v>
@@ -2317,26 +2341,26 @@
     </row>
     <row r="43" customFormat="1" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B43" s="1">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F43" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J43" s="2" t="b">
         <v>1</v>
@@ -2344,26 +2368,26 @@
     </row>
     <row r="44" customFormat="1" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B44" s="1">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F44" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I44" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J44" s="2" t="b">
         <v>1</v>
@@ -2375,67 +2399,70 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B46" s="1">
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="F46" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B47" s="1">
         <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B48" s="1">
         <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F48" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B49" s="1">
         <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F49" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="161">
   <si>
     <t>Id</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>bullet0001</t>
+  </si>
+  <si>
+    <t>0003</t>
   </si>
   <si>
     <t>res://prefab/bullet/normal/Bullet0001.tscn</t>
@@ -1490,10 +1493,10 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1930,14 +1933,16 @@
       <c r="F19" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="H19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
@@ -1945,14 +1950,16 @@
       <c r="F20" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="H20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
@@ -1961,34 +1968,36 @@
       <c r="F21" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="H21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
@@ -1999,12 +2008,12 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1">
         <v>7</v>
@@ -2015,12 +2024,12 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" s="1">
         <v>7</v>
@@ -2030,67 +2039,65 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1">
         <v>7</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27"/>
-      <c r="E27"/>
       <c r="F27" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F29" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B31" s="1">
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F31" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J31" s="2" t="b">
         <v>1</v>
@@ -2098,26 +2105,26 @@
     </row>
     <row r="32" customFormat="1" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1">
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F32" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J32" s="2" t="b">
         <v>1</v>
@@ -2125,26 +2132,26 @@
     </row>
     <row r="33" customFormat="1" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F33" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J33" s="2" t="b">
         <v>1</v>
@@ -2152,26 +2159,26 @@
     </row>
     <row r="34" customFormat="1" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B34" s="1">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F34" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J34" s="2" t="b">
         <v>1</v>
@@ -2179,26 +2186,26 @@
     </row>
     <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B35" s="1">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F35" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J35" s="2" t="b">
         <v>1</v>
@@ -2206,26 +2213,26 @@
     </row>
     <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B36" s="1">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F36" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J36" s="2" t="b">
         <v>1</v>
@@ -2233,26 +2240,26 @@
     </row>
     <row r="37" customFormat="1" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B37" s="1">
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F37" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J37" s="2" t="b">
         <v>1</v>
@@ -2260,26 +2267,26 @@
     </row>
     <row r="38" customFormat="1" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F38" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J38" s="2" t="b">
         <v>1</v>
@@ -2287,26 +2294,26 @@
     </row>
     <row r="39" customFormat="1" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B39" s="1">
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F39" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J39" s="2" t="b">
         <v>1</v>
@@ -2314,26 +2321,26 @@
     </row>
     <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B40" s="1">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F40" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J40" s="2" t="b">
         <v>1</v>
@@ -2341,26 +2348,26 @@
     </row>
     <row r="43" customFormat="1" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B43" s="1">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F43" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J43" s="2" t="b">
         <v>1</v>
@@ -2368,26 +2375,26 @@
     </row>
     <row r="44" customFormat="1" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B44" s="1">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F44" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J44" s="2" t="b">
         <v>1</v>
@@ -2399,70 +2406,70 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B46" s="1">
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F46" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B47" s="1">
         <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B48" s="1">
         <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F48" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B49" s="1">
         <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F49" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="166">
   <si>
     <t>Id</t>
   </si>
@@ -439,13 +439,28 @@
     <t>分裂子弹</t>
   </si>
   <si>
-    <t>子弹数量翻倍, 但是精准度和伤害降低</t>
+    <t>子弹数量翻倍, 但是精准度, 击退和伤害降低</t>
   </si>
   <si>
     <t>res://prefab/prop/buff/BuffProp0010.tscn</t>
   </si>
   <si>
     <t>res://resource/sprite/prop/buff/BuffProp0010.png</t>
+  </si>
+  <si>
+    <t>prop0011</t>
+  </si>
+  <si>
+    <t>弹射子弹</t>
+  </si>
+  <si>
+    <t>子弹反弹次数 +2</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/buff/BuffProp0011.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/buff/BuffProp0011.png</t>
   </si>
   <si>
     <t>prop5000</t>
@@ -1127,18 +1142,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1493,10 +1511,10 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1504,9 +1522,9 @@
     <col min="1" max="1" width="27.5583333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.6" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.8916666666667" style="1" customWidth="1"/>
-    <col min="4" max="5" width="35.5583333333333" customWidth="1"/>
+    <col min="4" max="5" width="35.5583333333333" style="2" customWidth="1"/>
     <col min="6" max="7" width="18.8166666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="63.3666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="63.3666666666667" style="3" customWidth="1"/>
     <col min="9" max="9" width="61.9083333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
   </cols>
@@ -1521,10 +1539,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1533,7 +1551,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1544,31 +1562,31 @@
       </c>
     </row>
     <row r="2" ht="138" customHeight="1" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
@@ -1585,10 +1603,10 @@
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1597,7 +1615,7 @@
       <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I3" t="s">
@@ -1607,14 +1625,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="35" customHeight="1" spans="3:10">
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="2"/>
+    <row r="4" ht="35" customHeight="1" spans="4:10">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -1623,33 +1640,32 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" ht="28" customHeight="1" spans="3:10">
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="2"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="4:10">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
@@ -1658,35 +1674,34 @@
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="3:10">
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="2"/>
+      <c r="J7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="28" customHeight="1" spans="4:10">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:10">
       <c r="A9" s="1" t="s">
@@ -1695,22 +1710,22 @@
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="2" t="b">
+      <c r="J9" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1721,22 +1736,22 @@
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I10" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="2" t="b">
+      <c r="J10" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1747,22 +1762,22 @@
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I11" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="2" t="b">
+      <c r="J11" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1773,22 +1788,22 @@
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I12" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="2" t="b">
+      <c r="J12" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1799,22 +1814,22 @@
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I13" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="2" t="b">
+      <c r="J13" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1825,22 +1840,22 @@
       <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I14" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="2" t="b">
+      <c r="J14" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1851,22 +1866,22 @@
       <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I15" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="2" t="b">
+      <c r="J15" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1877,22 +1892,22 @@
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I16" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="2" t="b">
+      <c r="J16" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1903,22 +1918,22 @@
       <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="I17" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="2" t="b">
+      <c r="J17" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1930,13 +1945,13 @@
       <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1947,13 +1962,13 @@
       <c r="B20" s="1">
         <v>6</v>
       </c>
-      <c r="F20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1965,13 +1980,15 @@
         <v>6</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="F21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1985,13 +2002,15 @@
       <c r="C22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2003,11 +2022,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="F24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="1" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2019,11 +2040,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="F25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="1" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2034,11 +2057,11 @@
       <c r="B26" s="1">
         <v>7</v>
       </c>
-      <c r="F26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="1" t="s">
+      <c r="F26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2050,11 +2073,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="F27" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="1" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2065,14 +2090,14 @@
       <c r="B29" s="1">
         <v>8</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="1" t="s">
+      <c r="F29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2086,20 +2111,20 @@
       <c r="C31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="1" t="s">
+      <c r="F31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="3" t="s">
         <v>89</v>
       </c>
       <c r="I31" t="s">
         <v>93</v>
       </c>
-      <c r="J31" s="2" t="b">
+      <c r="J31" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2113,20 +2138,21 @@
       <c r="C32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="1" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="3" t="s">
         <v>97</v>
       </c>
       <c r="I32" t="s">
         <v>98</v>
       </c>
-      <c r="J32" s="2" t="b">
+      <c r="J32" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2140,20 +2166,21 @@
       <c r="C33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="1" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="3" t="s">
         <v>102</v>
       </c>
       <c r="I33" t="s">
         <v>103</v>
       </c>
-      <c r="J33" s="2" t="b">
+      <c r="J33" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2167,20 +2194,21 @@
       <c r="C34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="1" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="3" t="s">
         <v>107</v>
       </c>
       <c r="I34" t="s">
         <v>108</v>
       </c>
-      <c r="J34" s="2" t="b">
+      <c r="J34" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2194,20 +2222,21 @@
       <c r="C35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="1" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="3" t="s">
         <v>112</v>
       </c>
       <c r="I35" t="s">
         <v>113</v>
       </c>
-      <c r="J35" s="2" t="b">
+      <c r="J35" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2221,20 +2250,21 @@
       <c r="C36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="1" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="3" t="s">
         <v>117</v>
       </c>
       <c r="I36" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="2" t="b">
+      <c r="J36" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2248,20 +2278,21 @@
       <c r="C37" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="1" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I37" t="s">
         <v>123</v>
       </c>
-      <c r="J37" s="2" t="b">
+      <c r="J37" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2275,20 +2306,21 @@
       <c r="C38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="1" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="3" t="s">
         <v>127</v>
       </c>
       <c r="I38" t="s">
         <v>128</v>
       </c>
-      <c r="J38" s="2" t="b">
+      <c r="J38" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2302,24 +2334,25 @@
       <c r="C39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="1" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="3" t="s">
         <v>132</v>
       </c>
       <c r="I39" t="s">
         <v>133</v>
       </c>
-      <c r="J39" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:10">
+      <c r="J39" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" ht="27" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>134</v>
       </c>
@@ -2329,147 +2362,174 @@
       <c r="C40" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F40" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="1" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="3" t="s">
         <v>137</v>
       </c>
       <c r="I40" t="s">
         <v>138</v>
       </c>
-      <c r="J40" s="2" t="b">
+      <c r="J40" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B43" s="1">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" t="s">
-        <v>141</v>
-      </c>
-      <c r="F43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="I43" t="s">
-        <v>143</v>
-      </c>
-      <c r="J43" s="2" t="b">
+        <v>148</v>
+      </c>
+      <c r="J43" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B44" s="1">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" t="s">
-        <v>146</v>
-      </c>
-      <c r="F44" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I44" t="s">
-        <v>148</v>
-      </c>
-      <c r="J44" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7">
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="J44" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B46" s="1">
         <v>99</v>
       </c>
-      <c r="D46" t="s">
-        <v>150</v>
+      <c r="D46" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="F46" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>151</v>
+      <c r="H46" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B47" s="1">
         <v>99</v>
       </c>
-      <c r="D47" t="s">
-        <v>153</v>
+      <c r="D47" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="F47" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>154</v>
+      <c r="H47" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B48" s="1">
         <v>99</v>
       </c>
-      <c r="D48" t="s">
-        <v>156</v>
+      <c r="D48" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="F48" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>157</v>
+      <c r="H48" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B49" s="1">
         <v>99</v>
       </c>
-      <c r="D49" t="s">
-        <v>159</v>
+      <c r="D49" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="F49" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>160</v>
+      <c r="H49" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="181">
   <si>
     <t>Id</t>
   </si>
@@ -454,13 +454,58 @@
     <t>弹射子弹</t>
   </si>
   <si>
-    <t>子弹反弹次数 +2</t>
+    <t>子弹反弹次数+2</t>
   </si>
   <si>
     <t>res://prefab/prop/buff/BuffProp0011.tscn</t>
   </si>
   <si>
     <t>res://resource/sprite/prop/buff/BuffProp0011.png</t>
+  </si>
+  <si>
+    <t>prop0012</t>
+  </si>
+  <si>
+    <t>穿透子弹</t>
+  </si>
+  <si>
+    <t>子弹穿透+1</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/buff/BuffProp0012.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/buff/BuffProp0012.png</t>
+  </si>
+  <si>
+    <t>prop0013</t>
+  </si>
+  <si>
+    <t>武器背包</t>
+  </si>
+  <si>
+    <t>武器容量+1</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/buff/BuffProp0013.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/buff/BuffProp0013.png</t>
+  </si>
+  <si>
+    <t>prop0014</t>
+  </si>
+  <si>
+    <t>道具背包</t>
+  </si>
+  <si>
+    <t>道具容量+1</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/buff/BuffProp0014.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/buff/BuffProp0014.png</t>
   </si>
   <si>
     <t>prop5000</t>
@@ -1142,7 +1187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1154,9 +1199,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1509,12 +1551,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1539,7 +1581,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1571,10 +1613,10 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1586,7 +1628,7 @@
       <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
@@ -1625,13 +1667,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="35" customHeight="1" spans="4:10">
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+    <row r="4" ht="35" customHeight="1" spans="8:10">
       <c r="H4" s="1"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -1643,29 +1681,23 @@
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4"/>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" ht="28" customHeight="1" spans="4:10">
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="8:10">
       <c r="H6" s="1"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
@@ -1677,31 +1709,25 @@
       <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4"/>
       <c r="F7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="4:10">
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="J7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="28" customHeight="1" spans="8:10">
       <c r="H8" s="1"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:10">
       <c r="A9" s="1" t="s">
@@ -1713,19 +1739,16 @@
       <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
       <c r="F9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="4" t="b">
+      <c r="J9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1739,19 +1762,16 @@
       <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
       <c r="F10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I10" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="4" t="b">
+      <c r="J10" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1765,19 +1785,16 @@
       <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
       <c r="F11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I11" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="4" t="b">
+      <c r="J11" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1791,19 +1808,16 @@
       <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
       <c r="F12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I12" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="4" t="b">
+      <c r="J12" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1817,19 +1831,16 @@
       <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
       <c r="F13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I13" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="4" t="b">
+      <c r="J13" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1843,19 +1854,16 @@
       <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
       <c r="F14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I14" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="4" t="b">
+      <c r="J14" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1869,19 +1877,16 @@
       <c r="C15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
       <c r="F15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I15" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="4" t="b">
+      <c r="J15" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1895,19 +1900,16 @@
       <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
       <c r="F16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I16" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="4" t="b">
+      <c r="J16" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1921,19 +1923,16 @@
       <c r="C17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
       <c r="F17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="I17" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="4" t="b">
+      <c r="J17" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1948,7 +1947,7 @@
       <c r="F19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -1965,7 +1964,7 @@
       <c r="F20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -1985,7 +1984,7 @@
       <c r="F21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -2007,7 +2006,7 @@
       <c r="F22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -2060,7 +2059,6 @@
       <c r="F26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="1"/>
       <c r="H26" s="3" t="s">
         <v>84</v>
       </c>
@@ -2096,7 +2094,6 @@
       <c r="F29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G29" s="1"/>
       <c r="H29" s="3" t="s">
         <v>89</v>
       </c>
@@ -2117,14 +2114,13 @@
       <c r="F31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G31" s="1"/>
       <c r="H31" s="3" t="s">
         <v>89</v>
       </c>
       <c r="I31" t="s">
         <v>93</v>
       </c>
-      <c r="J31" s="4" t="b">
+      <c r="J31" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2152,7 +2148,7 @@
       <c r="I32" t="s">
         <v>98</v>
       </c>
-      <c r="J32" s="4" t="b">
+      <c r="J32" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2180,7 +2176,7 @@
       <c r="I33" t="s">
         <v>103</v>
       </c>
-      <c r="J33" s="4" t="b">
+      <c r="J33" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2208,7 +2204,7 @@
       <c r="I34" t="s">
         <v>108</v>
       </c>
-      <c r="J34" s="4" t="b">
+      <c r="J34" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2236,7 +2232,7 @@
       <c r="I35" t="s">
         <v>113</v>
       </c>
-      <c r="J35" s="4" t="b">
+      <c r="J35" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2264,7 +2260,7 @@
       <c r="I36" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="4" t="b">
+      <c r="J36" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2292,7 +2288,7 @@
       <c r="I37" t="s">
         <v>123</v>
       </c>
-      <c r="J37" s="4" t="b">
+      <c r="J37" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2320,7 +2316,7 @@
       <c r="I38" t="s">
         <v>128</v>
       </c>
-      <c r="J38" s="4" t="b">
+      <c r="J38" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2348,7 +2344,7 @@
       <c r="I39" t="s">
         <v>133</v>
       </c>
-      <c r="J39" s="4" t="b">
+      <c r="J39" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2376,7 +2372,7 @@
       <c r="I40" t="s">
         <v>138</v>
       </c>
-      <c r="J40" s="4" t="b">
+      <c r="J40" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2404,22 +2400,50 @@
       <c r="I41" t="s">
         <v>143</v>
       </c>
-      <c r="J41" s="4" t="b">
+      <c r="J41" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" t="s">
+        <v>148</v>
+      </c>
+      <c r="J42" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B43" s="1">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1" t="b">
@@ -2427,27 +2451,27 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I43" t="s">
-        <v>148</v>
-      </c>
-      <c r="J43" s="4" t="b">
+        <v>153</v>
+      </c>
+      <c r="J43" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B44" s="1">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="b">
@@ -2455,81 +2479,148 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J44" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B46" s="1">
+        <v>158</v>
+      </c>
+      <c r="J44" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:10">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="3"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="47" customFormat="1" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="1">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I47" t="s">
+        <v>163</v>
+      </c>
+      <c r="J47" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="1">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I48" t="s">
+        <v>168</v>
+      </c>
+      <c r="J48" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="1">
         <v>99</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F46" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" s="1">
+      <c r="D50" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="1">
         <v>99</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F47" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B48" s="1">
+      <c r="D51" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="1">
         <v>99</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F48" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B49" s="1">
+      <c r="D52" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="1">
         <v>99</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>165</v>
+      <c r="D53" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="185">
   <si>
     <t>Id</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>res://resource/sprite/role/enemy0001/enemy0001_Icon.png</t>
+  </si>
+  <si>
+    <t>enemy0002</t>
+  </si>
+  <si>
+    <t>敌人2</t>
+  </si>
+  <si>
+    <t>res://prefab/role/Enemy0002.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/role/enemy0002/Enemy0002.png</t>
   </si>
   <si>
     <t>weapon0001</t>
@@ -1551,12 +1563,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1725,97 +1737,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="28" customHeight="1" spans="8:10">
-      <c r="H8" s="1"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="1:10">
-      <c r="A9" s="1" t="s">
+    <row r="8" ht="28" customHeight="1" spans="1:10">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I8" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="J8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="28" customHeight="1" spans="8:10">
+      <c r="H9" s="1"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" ht="28" customHeight="1" spans="8:10">
+      <c r="H10" s="1"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" ht="28" customHeight="1" spans="8:10">
+      <c r="H11" s="1"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="b">
         <v>1</v>
@@ -1823,22 +1800,22 @@
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J13" s="2" t="b">
         <v>1</v>
@@ -1846,22 +1823,22 @@
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J14" s="2" t="b">
         <v>1</v>
@@ -1869,22 +1846,22 @@
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J15" s="2" t="b">
         <v>1</v>
@@ -1892,22 +1869,22 @@
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J16" s="2" t="b">
         <v>1</v>
@@ -1915,110 +1892,137 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="F19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I19" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="39" customHeight="1"/>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
+      <c r="J19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="1:10">
+      <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
+      <c r="I20" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="1">
-        <v>6</v>
-      </c>
-      <c r="F20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="J20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="39" customHeight="1"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -2026,46 +2030,38 @@
       <c r="F24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="H24" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="H25" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="1">
-        <v>7</v>
-      </c>
-      <c r="F26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
     <row r="27" customFormat="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B27" s="1">
         <v>7</v>
@@ -2078,6 +2074,24 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2086,123 +2100,71 @@
         <v>87</v>
       </c>
       <c r="B29" s="1">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1">
         <v>8</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="1">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="F32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J31" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="1" t="s">
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B32" s="1">
-        <v>9</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J32" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="1">
-        <v>9</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I33" t="s">
-        <v>103</v>
-      </c>
-      <c r="J33" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:10">
-      <c r="A34" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="B34" s="1">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>96</v>
+      </c>
       <c r="F34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="1"/>
       <c r="H34" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J34" s="2" t="b">
         <v>1</v>
@@ -2210,16 +2172,16 @@
     </row>
     <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B35" s="1">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="1" t="b">
@@ -2227,10 +2189,10 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I35" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J35" s="2" t="b">
         <v>1</v>
@@ -2238,16 +2200,16 @@
     </row>
     <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B36" s="1">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1" t="b">
@@ -2255,10 +2217,10 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="I36" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="J36" s="2" t="b">
         <v>1</v>
@@ -2266,16 +2228,16 @@
     </row>
     <row r="37" customFormat="1" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1">
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="b">
@@ -2283,10 +2245,10 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I37" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J37" s="2" t="b">
         <v>1</v>
@@ -2294,16 +2256,16 @@
     </row>
     <row r="38" customFormat="1" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="b">
@@ -2311,10 +2273,10 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I38" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="J38" s="2" t="b">
         <v>1</v>
@@ -2322,16 +2284,16 @@
     </row>
     <row r="39" customFormat="1" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B39" s="1">
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="1" t="b">
@@ -2339,27 +2301,27 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I39" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="J39" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="27" spans="1:10">
+    <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B40" s="1">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="b">
@@ -2367,10 +2329,10 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I40" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="J40" s="2" t="b">
         <v>1</v>
@@ -2378,16 +2340,16 @@
     </row>
     <row r="41" customFormat="1" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B41" s="1">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="b">
@@ -2395,10 +2357,10 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="I41" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="J41" s="2" t="b">
         <v>1</v>
@@ -2406,16 +2368,16 @@
     </row>
     <row r="42" customFormat="1" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B42" s="1">
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="b">
@@ -2423,27 +2385,27 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I42" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="J42" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:10">
+    <row r="43" customFormat="1" ht="27" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B43" s="1">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1" t="b">
@@ -2451,10 +2413,10 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="I43" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J43" s="2" t="b">
         <v>1</v>
@@ -2462,16 +2424,16 @@
     </row>
     <row r="44" customFormat="1" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B44" s="1">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="b">
@@ -2479,38 +2441,83 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" t="s">
+        <v>147</v>
+      </c>
+      <c r="J44" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="1">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I45" t="s">
+        <v>152</v>
+      </c>
+      <c r="J45" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:10">
+      <c r="A46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I46" t="s">
         <v>157</v>
       </c>
-      <c r="I44" t="s">
-        <v>158</v>
-      </c>
-      <c r="J44" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:10">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="3"/>
-      <c r="J45" s="2"/>
+      <c r="J46" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" customFormat="1" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B47" s="1">
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="1" t="b">
@@ -2518,109 +2525,148 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I47" t="s">
         <v>162</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:10">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="3"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="50" customFormat="1" spans="1:10">
+      <c r="A50" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J47" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:10">
-      <c r="A48" s="1" t="s">
+      <c r="B50" s="1">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="1">
+      <c r="D50" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I50" t="s">
+        <v>167</v>
+      </c>
+      <c r="J50" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:10">
+      <c r="A51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" s="1">
         <v>9</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I48" t="s">
-        <v>168</v>
-      </c>
-      <c r="J48" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="1">
-        <v>99</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="3" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
+      <c r="I51" t="s">
         <v>172</v>
       </c>
-      <c r="B51" s="1">
-        <v>99</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F51" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B52" s="1">
-        <v>99</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>177</v>
+      <c r="J51" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B53" s="1">
         <v>99</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="1">
+        <v>99</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="3" t="s">
+      <c r="B55" s="1">
+        <v>99</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>180</v>
+      </c>
+      <c r="F55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" s="1">
+        <v>99</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="189">
   <si>
     <t>Id</t>
   </si>
@@ -278,6 +278,18 @@
   </si>
   <si>
     <t>res://prefab/bullet/normal/Bullet0004.tscn</t>
+  </si>
+  <si>
+    <t>bullet0005</t>
+  </si>
+  <si>
+    <t>敌方专用子弹</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>res://prefab/bullet/normal/Bullet0005.tscn</t>
   </si>
   <si>
     <t>shell0001</t>
@@ -1563,12 +1575,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2059,52 +2071,52 @@
         <v>82</v>
       </c>
     </row>
+    <row r="26" customFormat="1" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="27" customFormat="1" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="1">
-        <v>7</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="1">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="F27" s="1"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B29" s="1">
         <v>7</v>
       </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="3" t="s">
         <v>88</v>
       </c>
@@ -2127,156 +2139,76 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="1">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="1">
         <v>8</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="1">
-        <v>9</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="F36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J34" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:10">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B35" s="1">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I35" t="s">
-        <v>102</v>
-      </c>
-      <c r="J35" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:10">
-      <c r="A36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="1">
-        <v>9</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I36" t="s">
-        <v>107</v>
-      </c>
-      <c r="J36" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:10">
-      <c r="A37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="1">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" t="s">
-        <v>112</v>
-      </c>
-      <c r="J37" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:10">
-      <c r="A38" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>100</v>
+      </c>
       <c r="F38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G38" s="1"/>
       <c r="H38" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="I38" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="J38" s="2" t="b">
         <v>1</v>
@@ -2284,16 +2216,16 @@
     </row>
     <row r="39" customFormat="1" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B39" s="1">
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="1" t="b">
@@ -2301,10 +2233,10 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="I39" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="J39" s="2" t="b">
         <v>1</v>
@@ -2312,16 +2244,16 @@
     </row>
     <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B40" s="1">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="b">
@@ -2329,10 +2261,10 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="I40" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="J40" s="2" t="b">
         <v>1</v>
@@ -2340,16 +2272,16 @@
     </row>
     <row r="41" customFormat="1" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B41" s="1">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="b">
@@ -2357,10 +2289,10 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I41" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J41" s="2" t="b">
         <v>1</v>
@@ -2368,16 +2300,16 @@
     </row>
     <row r="42" customFormat="1" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B42" s="1">
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="b">
@@ -2385,27 +2317,27 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="3" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="I42" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="J42" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="27" spans="1:10">
+    <row r="43" customFormat="1" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B43" s="1">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1" t="b">
@@ -2413,10 +2345,10 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="I43" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="J43" s="2" t="b">
         <v>1</v>
@@ -2424,16 +2356,16 @@
     </row>
     <row r="44" customFormat="1" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B44" s="1">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="b">
@@ -2441,10 +2373,10 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="3" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I44" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="J44" s="2" t="b">
         <v>1</v>
@@ -2452,16 +2384,16 @@
     </row>
     <row r="45" customFormat="1" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B45" s="1">
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="1" t="b">
@@ -2469,10 +2401,10 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="I45" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="J45" s="2" t="b">
         <v>1</v>
@@ -2480,16 +2412,16 @@
     </row>
     <row r="46" customFormat="1" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B46" s="1">
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="1" t="b">
@@ -2497,27 +2429,27 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="3" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="I46" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="J46" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="1" spans="1:10">
+    <row r="47" customFormat="1" ht="27" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B47" s="1">
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="1" t="b">
@@ -2525,38 +2457,83 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="3" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="I47" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="J47" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:10">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
+      <c r="A48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="1">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="3"/>
-      <c r="J48" s="2"/>
+      <c r="H48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" t="s">
+        <v>151</v>
+      </c>
+      <c r="J48" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="1">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I49" t="s">
+        <v>156</v>
+      </c>
+      <c r="J49" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" customFormat="1" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B50" s="1">
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="b">
@@ -2564,10 +2541,10 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I50" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J50" s="2" t="b">
         <v>1</v>
@@ -2575,16 +2552,16 @@
     </row>
     <row r="51" customFormat="1" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B51" s="1">
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="1" t="b">
@@ -2592,81 +2569,148 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I51" t="s">
+        <v>166</v>
+      </c>
+      <c r="J51" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:10">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="3"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="54" customFormat="1" spans="1:10">
+      <c r="A54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I54" t="s">
         <v>171</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J54" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:10">
+      <c r="A55" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J51" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
+      <c r="B55" s="1">
+        <v>9</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="1">
+      <c r="D55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I55" t="s">
+        <v>176</v>
+      </c>
+      <c r="J55" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" s="1">
         <v>99</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F53" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B54" s="1">
+      <c r="D57" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" s="1">
         <v>99</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F54" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B55" s="1">
+      <c r="D58" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="1">
         <v>99</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F55" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B56" s="1">
+      <c r="D59" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" s="1">
         <v>99</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F56" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>184</v>
+      <c r="D60" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowWidth="24960" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
     <t>榴弹炮</t>
   </si>
   <si>
-    <t>0002</t>
+    <t>0005</t>
   </si>
   <si>
     <t>res://prefab/bullet/normal/Bullet0004.tscn</t>
@@ -1580,7 +1580,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24960" windowHeight="12990"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="193">
   <si>
     <t>Id</t>
   </si>
@@ -316,22 +316,34 @@
     <t>res://prefab/shell/Shell0004.tscn</t>
   </si>
   <si>
-    <t>effect0001</t>
-  </si>
-  <si>
-    <t>敌人死亡碎片</t>
+    <t>enemy_dead0001</t>
+  </si>
+  <si>
+    <t>敌人1死亡碎片</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/enemy/EbenyDead0001.tscn</t>
+  </si>
+  <si>
+    <t>enemy_dead0002</t>
+  </si>
+  <si>
+    <t>敌人2死亡</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/enemy/EbenyDead0002.tscn</t>
+  </si>
+  <si>
+    <t>prop0001</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>提高移动速度</t>
   </si>
   <si>
     <t>res://prefab/effect/enemy/Effect0001.tscn</t>
-  </si>
-  <si>
-    <t>prop0001</t>
-  </si>
-  <si>
-    <t>鞋子</t>
-  </si>
-  <si>
-    <t>提高移动速度</t>
   </si>
   <si>
     <t>res://resource/sprite/prop/buff/BuffProp0001.png</t>
@@ -1575,12 +1587,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2188,55 +2200,47 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="s">
+    <row r="37" customFormat="1" spans="1:8">
+      <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="1">
-        <v>9</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B37" s="1">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I38" t="s">
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="J38" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:10">
-      <c r="A39" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="B39" s="1">
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="F39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="3" t="s">
+      <c r="I39" t="s">
         <v>105</v>
-      </c>
-      <c r="I39" t="s">
-        <v>106</v>
       </c>
       <c r="J39" s="2" t="b">
         <v>1</v>
@@ -2244,16 +2248,16 @@
     </row>
     <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" s="1">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="b">
@@ -2261,10 +2265,10 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" t="s">
         <v>110</v>
-      </c>
-      <c r="I40" t="s">
-        <v>111</v>
       </c>
       <c r="J40" s="2" t="b">
         <v>1</v>
@@ -2272,16 +2276,16 @@
     </row>
     <row r="41" customFormat="1" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="1">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="b">
@@ -2289,10 +2293,10 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I41" t="s">
         <v>115</v>
-      </c>
-      <c r="I41" t="s">
-        <v>116</v>
       </c>
       <c r="J41" s="2" t="b">
         <v>1</v>
@@ -2300,16 +2304,16 @@
     </row>
     <row r="42" customFormat="1" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="1">
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="b">
@@ -2317,10 +2321,10 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" t="s">
         <v>120</v>
-      </c>
-      <c r="I42" t="s">
-        <v>121</v>
       </c>
       <c r="J42" s="2" t="b">
         <v>1</v>
@@ -2328,16 +2332,16 @@
     </row>
     <row r="43" customFormat="1" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="1">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1" t="b">
@@ -2345,10 +2349,10 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" t="s">
         <v>125</v>
-      </c>
-      <c r="I43" t="s">
-        <v>126</v>
       </c>
       <c r="J43" s="2" t="b">
         <v>1</v>
@@ -2356,16 +2360,16 @@
     </row>
     <row r="44" customFormat="1" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" s="1">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="b">
@@ -2373,10 +2377,10 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I44" t="s">
         <v>130</v>
-      </c>
-      <c r="I44" t="s">
-        <v>131</v>
       </c>
       <c r="J44" s="2" t="b">
         <v>1</v>
@@ -2384,16 +2388,16 @@
     </row>
     <row r="45" customFormat="1" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1">
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="1" t="b">
@@ -2401,10 +2405,10 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" t="s">
         <v>135</v>
-      </c>
-      <c r="I45" t="s">
-        <v>136</v>
       </c>
       <c r="J45" s="2" t="b">
         <v>1</v>
@@ -2412,16 +2416,16 @@
     </row>
     <row r="46" customFormat="1" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B46" s="1">
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="1" t="b">
@@ -2429,27 +2433,27 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I46" t="s">
         <v>140</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:10">
+      <c r="A47" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="J46" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" ht="27" spans="1:10">
-      <c r="A47" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="B47" s="1">
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="1" t="b">
@@ -2457,27 +2461,27 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" t="s">
         <v>145</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" ht="27" spans="1:10">
+      <c r="A48" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="J47" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:10">
-      <c r="A48" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="B48" s="1">
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="1" t="b">
@@ -2485,10 +2489,10 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I48" t="s">
         <v>150</v>
-      </c>
-      <c r="I48" t="s">
-        <v>151</v>
       </c>
       <c r="J48" s="2" t="b">
         <v>1</v>
@@ -2496,16 +2500,16 @@
     </row>
     <row r="49" customFormat="1" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B49" s="1">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="1" t="b">
@@ -2513,10 +2517,10 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I49" t="s">
         <v>155</v>
-      </c>
-      <c r="I49" t="s">
-        <v>156</v>
       </c>
       <c r="J49" s="2" t="b">
         <v>1</v>
@@ -2524,16 +2528,16 @@
     </row>
     <row r="50" customFormat="1" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B50" s="1">
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="b">
@@ -2541,10 +2545,10 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I50" t="s">
         <v>160</v>
-      </c>
-      <c r="I50" t="s">
-        <v>161</v>
       </c>
       <c r="J50" s="2" t="b">
         <v>1</v>
@@ -2552,16 +2556,16 @@
     </row>
     <row r="51" customFormat="1" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B51" s="1">
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="1" t="b">
@@ -2569,66 +2573,66 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I51" t="s">
         <v>165</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:10">
+      <c r="A52" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J51" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:10">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="2"/>
+      <c r="B52" s="1">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="3"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="54" customFormat="1" spans="1:10">
-      <c r="A54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="1">
-        <v>9</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="H52" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="3" t="s">
+      <c r="I52" t="s">
         <v>170</v>
       </c>
-      <c r="I54" t="s">
-        <v>171</v>
-      </c>
-      <c r="J54" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="J52" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:10">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="3"/>
+      <c r="J53" s="2"/>
     </row>
     <row r="55" customFormat="1" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B55" s="1">
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="1" t="b">
@@ -2636,81 +2640,109 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I55" t="s">
         <v>175</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:10">
+      <c r="A56" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J55" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="1" t="s">
+      <c r="B56" s="1">
+        <v>9</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="1">
-        <v>99</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F57" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="3" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="3" t="s">
         <v>179</v>
+      </c>
+      <c r="I56" t="s">
+        <v>180</v>
+      </c>
+      <c r="J56" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B58" s="1">
         <v>99</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B59" s="1">
         <v>99</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B60" s="1">
         <v>99</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F60" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="1">
+        <v>99</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="194">
   <si>
     <t>Id</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>shell0001</t>
+  </si>
+  <si>
+    <t>0006</t>
   </si>
   <si>
     <t>res://prefab/shell/Shell0001.tscn</t>
@@ -1590,9 +1593,9 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2128,14 +2131,16 @@
       <c r="F29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="H29" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1">
         <v>7</v>
@@ -2146,14 +2151,16 @@
       <c r="F30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="H30" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1">
         <v>7</v>
@@ -2161,13 +2168,16 @@
       <c r="F31" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="G31" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="H31" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1">
         <v>7</v>
@@ -2178,38 +2188,40 @@
       <c r="F32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="H32" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B36" s="1">
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F36" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B37" s="1">
         <v>8</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="b">
@@ -2217,30 +2229,30 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B39" s="1">
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F39" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J39" s="2" t="b">
         <v>1</v>
@@ -2248,16 +2260,16 @@
     </row>
     <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B40" s="1">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="b">
@@ -2265,10 +2277,10 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J40" s="2" t="b">
         <v>1</v>
@@ -2276,16 +2288,16 @@
     </row>
     <row r="41" customFormat="1" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B41" s="1">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="b">
@@ -2293,10 +2305,10 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J41" s="2" t="b">
         <v>1</v>
@@ -2304,16 +2316,16 @@
     </row>
     <row r="42" customFormat="1" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B42" s="1">
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="b">
@@ -2321,10 +2333,10 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J42" s="2" t="b">
         <v>1</v>
@@ -2332,16 +2344,16 @@
     </row>
     <row r="43" customFormat="1" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B43" s="1">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1" t="b">
@@ -2349,10 +2361,10 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J43" s="2" t="b">
         <v>1</v>
@@ -2360,16 +2372,16 @@
     </row>
     <row r="44" customFormat="1" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B44" s="1">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="b">
@@ -2377,10 +2389,10 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J44" s="2" t="b">
         <v>1</v>
@@ -2388,16 +2400,16 @@
     </row>
     <row r="45" customFormat="1" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B45" s="1">
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="1" t="b">
@@ -2405,10 +2417,10 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J45" s="2" t="b">
         <v>1</v>
@@ -2416,16 +2428,16 @@
     </row>
     <row r="46" customFormat="1" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B46" s="1">
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="1" t="b">
@@ -2433,10 +2445,10 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J46" s="2" t="b">
         <v>1</v>
@@ -2444,16 +2456,16 @@
     </row>
     <row r="47" customFormat="1" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B47" s="1">
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="1" t="b">
@@ -2461,10 +2473,10 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J47" s="2" t="b">
         <v>1</v>
@@ -2472,16 +2484,16 @@
     </row>
     <row r="48" customFormat="1" ht="27" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B48" s="1">
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="1" t="b">
@@ -2489,10 +2501,10 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J48" s="2" t="b">
         <v>1</v>
@@ -2500,16 +2512,16 @@
     </row>
     <row r="49" customFormat="1" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B49" s="1">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="1" t="b">
@@ -2517,10 +2529,10 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J49" s="2" t="b">
         <v>1</v>
@@ -2528,16 +2540,16 @@
     </row>
     <row r="50" customFormat="1" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" s="1">
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="b">
@@ -2545,10 +2557,10 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J50" s="2" t="b">
         <v>1</v>
@@ -2556,16 +2568,16 @@
     </row>
     <row r="51" customFormat="1" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B51" s="1">
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="1" t="b">
@@ -2573,10 +2585,10 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J51" s="2" t="b">
         <v>1</v>
@@ -2584,16 +2596,16 @@
     </row>
     <row r="52" customFormat="1" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B52" s="1">
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="1" t="b">
@@ -2601,10 +2613,10 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J52" s="2" t="b">
         <v>1</v>
@@ -2623,16 +2635,16 @@
     </row>
     <row r="55" customFormat="1" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B55" s="1">
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="1" t="b">
@@ -2640,10 +2652,10 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J55" s="2" t="b">
         <v>1</v>
@@ -2651,16 +2663,16 @@
     </row>
     <row r="56" customFormat="1" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B56" s="1">
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="1" t="b">
@@ -2668,10 +2680,10 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J56" s="2" t="b">
         <v>1</v>
@@ -2679,70 +2691,70 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B58" s="1">
         <v>99</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B59" s="1">
         <v>99</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B60" s="1">
         <v>99</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F60" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B61" s="1">
         <v>99</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F61" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -11,7 +11,20 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -325,7 +338,7 @@
     <t>敌人1死亡碎片</t>
   </si>
   <si>
-    <t>res://prefab/effect/enemy/EbenyDead0001.tscn</t>
+    <t>res://prefab/effect/enemy/EnemyDead0001.tscn</t>
   </si>
   <si>
     <t>enemy_dead0002</t>
@@ -334,7 +347,7 @@
     <t>敌人2死亡</t>
   </si>
   <si>
-    <t>res://prefab/effect/enemy/EbenyDead0002.tscn</t>
+    <t>res://prefab/effect/enemy/EnemyDead0002.tscn</t>
   </si>
   <si>
     <t>prop0001</t>
@@ -616,7 +629,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1595,7 +1608,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>bullet0005</t>
   </si>
   <si>
-    <t>敌方专用子弹</t>
+    <t>抛物线粘液子弹</t>
   </si>
   <si>
     <t>0004</t>
@@ -1606,9 +1606,9 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
     <t>res://prefab/weapon/Weapon0004.tscn</t>
   </si>
   <si>
-    <t>res://resource/sprite/weapon/knife1.png</t>
+    <t>res://resource/sprite/weapon/weapon0004/Weapon0004.png</t>
   </si>
   <si>
     <t>weapon0005</t>
@@ -1605,10 +1605,10 @@
   <sheetPr/>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,7 +257,7 @@
     <t>res://prefab/weapon/Weapon0009.tscn</t>
   </si>
   <si>
-    <t>res://resource/sprite/weapon/weapon0009/Weapon0009.png</t>
+    <t>res://resource/sprite/weapon/weapon0009/weapon0009.png</t>
   </si>
   <si>
     <t>bullet0001</t>
@@ -1605,10 +1605,10 @@
   <sheetPr/>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
